--- a/Conceptos Avanzados Ingenieria Software/TSP/Ciclo I/Material de Apoyo/Cuadro Actividades Ciclo 1 - Team.xlsx
+++ b/Conceptos Avanzados Ingenieria Software/TSP/Ciclo I/Material de Apoyo/Cuadro Actividades Ciclo 1 - Team.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="303">
   <si>
     <t>Phase</t>
   </si>
@@ -1352,48 +1352,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1439,6 +1397,48 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2642,18 +2642,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="83.25" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -5668,652 +5668,661 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J4" s="67" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J4" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="M4" s="69"/>
+      <c r="K4" s="53"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="K5" s="58"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="16.2" hidden="1" thickBot="1">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
+      <c r="D6" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="K8" s="58"/>
-      <c r="M8" s="70" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="M8" s="56" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K9" s="67"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="M9" s="56" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>286</v>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.2" hidden="1" thickBot="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="K11" s="58"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="16.2" hidden="1" thickBot="1">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="44" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K14" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="M14" s="70" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="M14" s="56" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="16.2" hidden="1" thickBot="1">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:13" ht="16.2" hidden="1" thickBot="1">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J18" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K18" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="M18" s="70" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="M18" s="56" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J19" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K19" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="M19" s="70" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="M19" s="56" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H20" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J20" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K20" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="M20" s="70" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K20" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="M20" s="56" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.2" hidden="1" thickBot="1">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:13" ht="16.2" hidden="1" thickBot="1">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J23" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K23" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="M23" s="70" t="s">
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="M23" s="56" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H24" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K24" s="67" t="s">
-        <v>286</v>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="M24" s="56" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.6">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="54" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.6">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="54" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.6">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="54" t="s">
         <v>301</v>
       </c>
     </row>
